--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面設計図.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B118A1-F67A-4ADB-8977-AAB989AE5C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEEE3B0-386D-45B4-9668-18EDDE78AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニューページ（講師）" sheetId="1" r:id="rId1"/>
@@ -4490,8 +4490,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1019174" y="1276350"/>
-          <a:ext cx="9344025" cy="4610100"/>
+          <a:off x="943534" y="1394012"/>
+          <a:ext cx="8486775" cy="5063938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5258,67 +5258,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9118D7D-0C1D-430D-B4A4-71FE7495369C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5304305" y="2042832"/>
-          <a:ext cx="1381125" cy="208431"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リアクション数順</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>212913</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -5343,8 +5282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6842313" y="2042832"/>
-          <a:ext cx="806262" cy="230841"/>
+          <a:off x="6237195" y="2227729"/>
+          <a:ext cx="730623" cy="264459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5852,66 +5791,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="二等辺三角形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AACF6B-FF62-4B29-B9F3-D51ED89F067C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10994582">
-          <a:off x="6521264" y="2124635"/>
-          <a:ext cx="67235" cy="89647"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>29137</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -6294,75 +6173,186 @@
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B61A345-BF6F-4AEA-8F34-19035BEAD2F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5A7109-EBCE-425F-B4EC-60EAA3ABB981}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5066179" y="1875864"/>
-          <a:ext cx="220196" cy="197224"/>
+          <a:off x="4612341" y="2043952"/>
+          <a:ext cx="1467971" cy="425826"/>
+          <a:chOff x="4612341" y="2043952"/>
+          <a:chExt cx="1467971" cy="425826"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9118D7D-0C1D-430D-B4A4-71FE7495369C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4825254" y="2227729"/>
+            <a:ext cx="1255058" cy="242049"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>リアクション数順</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="二等辺三角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AACF6B-FF62-4B29-B9F3-D51ED89F067C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10994582">
+            <a:off x="5941360" y="2326341"/>
+            <a:ext cx="67235" cy="89647"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
               <a:shade val="50000"/>
             </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキスト ボックス 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B61A345-BF6F-4AEA-8F34-19035BEAD2F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4612341" y="2043952"/>
+            <a:ext cx="194983" cy="230842"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -6787,8 +6777,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>100294</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>166968</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -6796,161 +6786,356 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1F6FA6-1210-479C-9D4F-4A9FF60C0581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C480A3E1-FFE8-476F-BB78-69C3326AB6C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1501029" y="2643468"/>
-          <a:ext cx="953062" cy="3161180"/>
+          <a:off x="1355353" y="2370044"/>
+          <a:ext cx="865656" cy="3367369"/>
+          <a:chOff x="1355353" y="2370044"/>
+          <a:chExt cx="865656" cy="3367369"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ルール</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※----</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※----</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※----</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1F6FA6-1210-479C-9D4F-4A9FF60C0581}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1355353" y="2614333"/>
+            <a:ext cx="865656" cy="3123080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ルール</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="テキスト ボックス 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510C5FD5-7969-4D45-841E-35F86BDF2461}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1400173" y="2370044"/>
+            <a:ext cx="330016" cy="200586"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145114</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>226359</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510C5FD5-7969-4D45-841E-35F86BDF2461}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA98A1A-D19A-4CC4-8EDB-6EE7063D1F31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1545849" y="2396938"/>
-          <a:ext cx="359151" cy="202827"/>
+          <a:off x="2837329" y="2061880"/>
+          <a:ext cx="1656230" cy="407898"/>
+          <a:chOff x="4486835" y="2070845"/>
+          <a:chExt cx="1656230" cy="407898"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C4467A-CC88-4628-A3B1-A1BE0D57C827}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4888007" y="2236694"/>
+            <a:ext cx="1255058" cy="242049"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>文字検索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="二等辺三角形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9C5B83-0671-4089-97BC-BDB183A1C0A6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10994582">
+            <a:off x="5941360" y="2326341"/>
+            <a:ext cx="67235" cy="89647"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
               <a:shade val="50000"/>
             </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="テキスト ボックス 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1660EE4B-453D-4F3A-BA21-2EEAFC7AD9C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4486835" y="2070845"/>
+            <a:ext cx="407894" cy="277908"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>11</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>10</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6984,8 +7169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="608542" y="1160992"/>
-          <a:ext cx="10021358" cy="5335058"/>
+          <a:off x="559012" y="1275292"/>
+          <a:ext cx="9129818" cy="5925608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7042,8 +7227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3556136" y="2327665"/>
-          <a:ext cx="4091420" cy="3480955"/>
+          <a:off x="3234018" y="2620342"/>
+          <a:ext cx="3688772" cy="3931228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9195,6 +9380,364 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86572</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A64D4A8-7B3E-4A87-8BAC-C13237E8CB95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1333481" y="2429376"/>
+          <a:ext cx="1417339" cy="4009524"/>
+          <a:chOff x="1355353" y="2370044"/>
+          <a:chExt cx="865656" cy="3367369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299991A0-24F8-484D-BCAB-7AE97C794B83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1355353" y="2614333"/>
+            <a:ext cx="865656" cy="3123080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ルール</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="テキスト ボックス 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9839A4E8-78C1-4CA4-ADAD-8DB123238514}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1400173" y="2370044"/>
+            <a:ext cx="330016" cy="200586"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>186170</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>109971</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD392BF-CC1F-48CF-9E34-A4733525E055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5423188" y="5034396"/>
+          <a:ext cx="422565" cy="270164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>返信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA7696B-F10C-4B30-86A4-02ECFB18C038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5360842" y="5560869"/>
+          <a:ext cx="422565" cy="270164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>返信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>158461</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>82262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>46760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F620A19-B8EF-4E1C-A4D0-E52FE3AF1298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5395479" y="6177396"/>
+          <a:ext cx="422565" cy="270164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>返信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10316,8 +10859,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1504950" y="1143000"/>
-          <a:ext cx="7019925" cy="4743450"/>
+          <a:off x="1381125" y="1114425"/>
+          <a:ext cx="6400800" cy="4636770"/>
           <a:chOff x="1581150" y="962025"/>
           <a:chExt cx="7019925" cy="4743450"/>
         </a:xfrm>
@@ -11358,6 +11901,181 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136312</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="グループ化 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFB8D56-C75E-49B5-98D5-DA300E0AE751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1518285" y="2019299"/>
+          <a:ext cx="1186815" cy="3504353"/>
+          <a:chOff x="1355353" y="2370044"/>
+          <a:chExt cx="865656" cy="3367369"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A8676C-07BD-432B-B483-4E3603D18E04}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1355353" y="2614333"/>
+            <a:ext cx="865656" cy="3123080"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ルール</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>※----</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="テキスト ボックス 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFE4660-DDD0-41C7-AEEA-756E418FBF8A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1400173" y="2370044"/>
+            <a:ext cx="330016" cy="200586"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11688,9 +12406,9 @@
       <selection activeCell="N1" sqref="N1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
@@ -16438,16 +17156,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E51041-2DE3-492A-AFAC-936FDE23D912}">
   <dimension ref="A1:AQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="71" width="3.625" customWidth="1"/>
+    <col min="1" max="71" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="14.25" thickTop="1">
+    <row r="1" spans="1:43" ht="13.8" thickTop="1">
       <c r="A1" s="56" t="s">
         <v>6</v>
       </c>
@@ -16559,7 +17277,7 @@
       <c r="AP2" s="26"/>
       <c r="AQ2" s="26"/>
     </row>
-    <row r="3" spans="1:43" ht="14.25" thickBot="1">
+    <row r="3" spans="1:43" ht="13.8" thickBot="1">
       <c r="A3" s="62"/>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -16608,7 +17326,7 @@
       <c r="AP3" s="26"/>
       <c r="AQ3" s="26"/>
     </row>
-    <row r="4" spans="1:43" ht="14.25" thickTop="1">
+    <row r="4" spans="1:43" ht="13.8" thickTop="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -20327,13 +21045,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529E2D35-B990-42E7-AA7E-4AA33348DB69}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q51" sqref="Q51:R51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
@@ -24982,13 +25700,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FF3EF9-1447-45E2-9109-5144681A01F7}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
@@ -29563,13 +30281,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214625F-DB1A-4178-B9D3-297E1740DD58}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="129" width="3.625" customWidth="1"/>
+    <col min="1" max="129" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" customHeight="1" thickTop="1">
@@ -29720,7 +30438,7 @@
       <c r="AM3" s="82"/>
       <c r="AN3" s="83"/>
     </row>
-    <row r="4" spans="1:40" ht="14.25" thickTop="1">
+    <row r="4" spans="1:40" ht="13.8" thickTop="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -33162,7 +33880,7 @@
       <c r="AM83" s="20"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="14.25">
+    <row r="84" spans="1:40">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15">

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面設計図.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C2DDC-BD9F-4ECC-B0EB-A7B41B1FFFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F98B02D-D5EB-435F-A0C8-4D79D2E9F46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19956" windowHeight="11436" tabRatio="847" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17952" windowHeight="11436" tabRatio="847" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="6" r:id="rId1"/>
@@ -2272,6 +2272,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="50" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="51" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2518,64 +2559,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="50" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="51" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21323,152 +21323,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="77" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="73">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="74" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="117"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -25878,150 +25878,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="77" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="74" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="117"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -30533,154 +30533,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="77" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="73">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="74" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="117"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -35114,150 +35114,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="77" t="s">
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="84" t="s">
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="86"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="127"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="82"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="123"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -39868,162 +39868,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="13.8" thickTop="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="96" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96" t="s">
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96" t="s">
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="110" t="s">
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="103"/>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="104"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="145"/>
       <c r="AO1" s="25"/>
       <c r="AP1" s="26"/>
       <c r="AQ1" s="26"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="105" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105" t="s">
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105" t="s">
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="106">
+      <c r="X2" s="146"/>
+      <c r="Y2" s="147">
         <v>43986</v>
       </c>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="107" t="s">
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="109"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="150"/>
       <c r="AO2" s="25"/>
       <c r="AP2" s="26"/>
       <c r="AQ2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="13.8" thickBot="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="97" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100" t="s">
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="102"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
       <c r="AO3" s="25"/>
       <c r="AP3" s="26"/>
       <c r="AQ3" s="26"/>
@@ -43757,150 +43757,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="77" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="74" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="117"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -48412,154 +48412,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="77" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="73">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="74" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="117"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -52993,152 +52993,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="117" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="118"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="117" t="s">
+      <c r="L1" s="159"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="117" t="s">
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="117" t="s">
+      <c r="X1" s="160"/>
+      <c r="Y1" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="120" t="s">
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
-      <c r="AL1" s="115"/>
-      <c r="AM1" s="115"/>
-      <c r="AN1" s="116"/>
+      <c r="AG1" s="162"/>
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="156"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="156"/>
+      <c r="AN1" s="157"/>
     </row>
     <row r="2" spans="1:40" ht="13.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="111" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="111" t="s">
+      <c r="L2" s="153"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="122">
+      <c r="X2" s="154"/>
+      <c r="Y2" s="163">
         <v>43983</v>
       </c>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="125" t="s">
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="164"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="164"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="129"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="170"/>
     </row>
     <row r="3" spans="1:40" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="13.8" thickTop="1">
       <c r="A4" s="1"/>
@@ -57723,152 +57723,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="77" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="71"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="73">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114">
         <v>44351</v>
       </c>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="74" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+      <c r="AI2" s="116"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="116"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="117"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="2"/>
@@ -62268,7 +62268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FBEAB-8F17-4A31-A3B4-516EF04C434F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
@@ -62278,150 +62278,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="63" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="130" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="132"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="172"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="173"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="72" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="133" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="135"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="176"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="64" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="69"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="B4" s="49"/>
@@ -66841,6 +66841,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -66851,11 +66856,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -66871,1299 +66871,1299 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03C125D-F232-4298-8F9B-1E1D0C0CFA9A}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="126" width="3.6640625" style="136" customWidth="1"/>
-    <col min="127" max="16384" width="8.88671875" style="136"/>
+    <col min="1" max="126" width="3.6640625" style="54" customWidth="1"/>
+    <col min="127" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="96" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96" t="s">
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96" t="s">
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96" t="s">
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="182" t="s">
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="182"/>
+      <c r="AG1" s="180"/>
       <c r="AH1" s="181"/>
       <c r="AI1" s="181"/>
       <c r="AJ1" s="181"/>
       <c r="AK1" s="181"/>
       <c r="AL1" s="181"/>
       <c r="AM1" s="181"/>
-      <c r="AN1" s="180"/>
+      <c r="AN1" s="182"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="105" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105" t="s">
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105" t="s">
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="106">
+      <c r="X2" s="146"/>
+      <c r="Y2" s="147">
         <v>43986</v>
       </c>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="179" t="s">
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="179"/>
+      <c r="AG2" s="177"/>
       <c r="AH2" s="178"/>
       <c r="AI2" s="178"/>
       <c r="AJ2" s="178"/>
       <c r="AK2" s="178"/>
       <c r="AL2" s="178"/>
       <c r="AM2" s="178"/>
-      <c r="AN2" s="177"/>
+      <c r="AN2" s="179"/>
     </row>
     <row r="3" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="97" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100" t="s">
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="102"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
     </row>
     <row r="4" spans="1:40" ht="13.8" thickTop="1"/>
     <row r="5" spans="1:40">
-      <c r="A5" s="176"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="174"/>
-      <c r="AG5" s="174"/>
-      <c r="AH5" s="174"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="174"/>
-      <c r="AK5" s="174"/>
-      <c r="AL5" s="174"/>
-      <c r="AM5" s="174"/>
-      <c r="AN5" s="173"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="91"/>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="141"/>
-      <c r="B6" s="175" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="174"/>
-      <c r="Y6" s="174"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="174"/>
-      <c r="AB6" s="174"/>
-      <c r="AC6" s="174"/>
-      <c r="AD6" s="174"/>
-      <c r="AE6" s="174"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="174"/>
-      <c r="AI6" s="174"/>
-      <c r="AJ6" s="174"/>
-      <c r="AK6" s="174"/>
-      <c r="AL6" s="174"/>
-      <c r="AM6" s="173"/>
-      <c r="AN6" s="140"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="91"/>
+      <c r="AN6" s="58"/>
     </row>
     <row r="7" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="AM7" s="140"/>
-      <c r="AN7" s="140"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
     </row>
     <row r="8" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169"/>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="169"/>
-      <c r="AD8" s="169"/>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="169"/>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="169"/>
-      <c r="AJ8" s="169"/>
-      <c r="AK8" s="168"/>
-      <c r="AM8" s="140"/>
-      <c r="AN8" s="140"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="86"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="58"/>
     </row>
     <row r="9" spans="1:40" ht="19.8" thickTop="1">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="166" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="164"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="163"/>
-      <c r="AK9" s="145"/>
-      <c r="AM9" s="140"/>
-      <c r="AN9" s="140"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="82"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="81"/>
+      <c r="AK9" s="63"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
     </row>
     <row r="10" spans="1:40" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="160"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="159" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="78"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="AC10" s="158"/>
-      <c r="AK10" s="145"/>
-      <c r="AM10" s="140"/>
-      <c r="AN10" s="140"/>
+      <c r="AC10" s="76"/>
+      <c r="AK10" s="63"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
     </row>
     <row r="11" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="D11" s="146"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="157"/>
-      <c r="AK11" s="145"/>
-      <c r="AM11" s="140"/>
-      <c r="AN11" s="140"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="D11" s="64"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="75"/>
+      <c r="AK11" s="63"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
     </row>
     <row r="12" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A12" s="141"/>
-      <c r="B12" s="141"/>
-      <c r="D12" s="146"/>
-      <c r="AK12" s="145"/>
-      <c r="AM12" s="140"/>
-      <c r="AN12" s="140"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="D12" s="64"/>
+      <c r="AK12" s="63"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="D13" s="146"/>
-      <c r="AK13" s="145"/>
-      <c r="AM13" s="140"/>
-      <c r="AN13" s="140"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="D13" s="64"/>
+      <c r="AK13" s="63"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="141"/>
-      <c r="B14" s="141"/>
-      <c r="D14" s="146"/>
-      <c r="AK14" s="145"/>
-      <c r="AM14" s="140"/>
-      <c r="AN14" s="140"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="D14" s="64"/>
+      <c r="AK14" s="63"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
     </row>
     <row r="15" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A15" s="141"/>
-      <c r="B15" s="141"/>
-      <c r="D15" s="146"/>
-      <c r="AK15" s="145"/>
-      <c r="AM15" s="140"/>
-      <c r="AN15" s="140"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="D15" s="64"/>
+      <c r="AK15" s="63"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
     </row>
     <row r="16" spans="1:40" ht="15" thickTop="1">
-      <c r="A16" s="141"/>
-      <c r="B16" s="141"/>
-      <c r="D16" s="146"/>
-      <c r="J16" s="156" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="D16" s="64"/>
+      <c r="J16" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="152" t="s">
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="N16" s="155"/>
-      <c r="O16" s="155"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="152" t="s">
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="152" t="s">
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="152" t="s">
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="152" t="s">
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="155"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="155"/>
-      <c r="AI16" s="151"/>
-      <c r="AK16" s="145"/>
-      <c r="AM16" s="140"/>
-      <c r="AN16" s="140"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="69"/>
+      <c r="AK16" s="63"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
     </row>
     <row r="17" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A17" s="141"/>
-      <c r="B17" s="141"/>
-      <c r="D17" s="146"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="150" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="D17" s="64"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="150" t="s">
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="150"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="147"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="147"/>
-      <c r="AK17" s="145"/>
-      <c r="AM17" s="140"/>
-      <c r="AN17" s="140"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="65"/>
+      <c r="AK17" s="63"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
     </row>
     <row r="18" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A18" s="141"/>
-      <c r="B18" s="141"/>
-      <c r="D18" s="146"/>
-      <c r="J18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="Y18" s="154">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="D18" s="64"/>
+      <c r="J18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="Y18" s="72">
         <v>2</v>
       </c>
-      <c r="AC18" s="154"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="152"/>
-      <c r="AI18" s="151"/>
-      <c r="AK18" s="145"/>
-      <c r="AM18" s="140"/>
-      <c r="AN18" s="140"/>
+      <c r="AC18" s="72"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="69"/>
+      <c r="AK18" s="63"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
     </row>
     <row r="19" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A19" s="141"/>
-      <c r="B19" s="141"/>
-      <c r="D19" s="146"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="150"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="147"/>
-      <c r="AH19" s="150"/>
-      <c r="AI19" s="147"/>
-      <c r="AK19" s="145"/>
-      <c r="AM19" s="140"/>
-      <c r="AN19" s="140"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="D19" s="64"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="65"/>
+      <c r="AK19" s="63"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
     </row>
     <row r="20" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A20" s="141"/>
-      <c r="B20" s="141"/>
-      <c r="D20" s="146"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="152"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="152"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="152"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="152"/>
-      <c r="AI20" s="151"/>
-      <c r="AK20" s="145"/>
-      <c r="AM20" s="140"/>
-      <c r="AN20" s="140"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="D20" s="64"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="69"/>
+      <c r="AK20" s="63"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
     </row>
     <row r="21" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A21" s="141"/>
-      <c r="B21" s="141"/>
-      <c r="D21" s="146"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="150"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="150"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="150"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="150"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="148"/>
-      <c r="AG21" s="147"/>
-      <c r="AH21" s="150"/>
-      <c r="AI21" s="147"/>
-      <c r="AK21" s="145"/>
-      <c r="AM21" s="140"/>
-      <c r="AN21" s="140"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="D21" s="64"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="65"/>
+      <c r="AK21" s="63"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
     </row>
     <row r="22" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A22" s="141"/>
-      <c r="B22" s="141"/>
-      <c r="D22" s="146"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="152"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="152"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="155"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="152"/>
-      <c r="AI22" s="151"/>
-      <c r="AK22" s="145"/>
-      <c r="AM22" s="140"/>
-      <c r="AN22" s="140"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="D22" s="64"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="69"/>
+      <c r="AK22" s="63"/>
+      <c r="AM22" s="58"/>
+      <c r="AN22" s="58"/>
     </row>
     <row r="23" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A23" s="141"/>
-      <c r="B23" s="141"/>
-      <c r="D23" s="146"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="150"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="150"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="150"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="148"/>
-      <c r="AG23" s="147"/>
-      <c r="AH23" s="150"/>
-      <c r="AI23" s="147"/>
-      <c r="AK23" s="145"/>
-      <c r="AM23" s="140"/>
-      <c r="AN23" s="140"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="D23" s="64"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="68"/>
+      <c r="AI23" s="65"/>
+      <c r="AK23" s="63"/>
+      <c r="AM23" s="58"/>
+      <c r="AN23" s="58"/>
     </row>
     <row r="24" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A24" s="141"/>
-      <c r="B24" s="141"/>
-      <c r="D24" s="146"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-      <c r="P24" s="155"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="152"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="155"/>
-      <c r="AF24" s="155"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="152"/>
-      <c r="AI24" s="151"/>
-      <c r="AK24" s="145"/>
-      <c r="AM24" s="140"/>
-      <c r="AN24" s="140"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="D24" s="64"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="69"/>
+      <c r="AK24" s="63"/>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="58"/>
     </row>
     <row r="25" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A25" s="141"/>
-      <c r="B25" s="141"/>
-      <c r="D25" s="146"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="150"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="150"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="148"/>
-      <c r="AG25" s="147"/>
-      <c r="AH25" s="150"/>
-      <c r="AI25" s="147"/>
-      <c r="AK25" s="145"/>
-      <c r="AM25" s="140"/>
-      <c r="AN25" s="140"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="D25" s="64"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="65"/>
+      <c r="AK25" s="63"/>
+      <c r="AM25" s="58"/>
+      <c r="AN25" s="58"/>
     </row>
     <row r="26" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A26" s="141"/>
-      <c r="B26" s="141"/>
-      <c r="D26" s="146"/>
-      <c r="J26" s="154"/>
-      <c r="M26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="AC26" s="154"/>
-      <c r="AG26" s="153"/>
-      <c r="AH26" s="152"/>
-      <c r="AI26" s="151"/>
-      <c r="AK26" s="145"/>
-      <c r="AM26" s="140"/>
-      <c r="AN26" s="140"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="D26" s="64"/>
+      <c r="J26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="69"/>
+      <c r="AK26" s="63"/>
+      <c r="AM26" s="58"/>
+      <c r="AN26" s="58"/>
     </row>
     <row r="27" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A27" s="141"/>
-      <c r="B27" s="141"/>
-      <c r="D27" s="146"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="150"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="148"/>
-      <c r="AG27" s="147"/>
-      <c r="AH27" s="150"/>
-      <c r="AI27" s="147"/>
-      <c r="AK27" s="145"/>
-      <c r="AM27" s="140"/>
-      <c r="AN27" s="140"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="D27" s="64"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="65"/>
+      <c r="AK27" s="63"/>
+      <c r="AM27" s="58"/>
+      <c r="AN27" s="58"/>
     </row>
     <row r="28" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A28" s="141"/>
-      <c r="B28" s="141"/>
-      <c r="D28" s="146"/>
-      <c r="J28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="152"/>
-      <c r="AI28" s="151"/>
-      <c r="AK28" s="145"/>
-      <c r="AM28" s="140"/>
-      <c r="AN28" s="140"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="D28" s="64"/>
+      <c r="J28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="69"/>
+      <c r="AK28" s="63"/>
+      <c r="AM28" s="58"/>
+      <c r="AN28" s="58"/>
     </row>
     <row r="29" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A29" s="141"/>
-      <c r="B29" s="141"/>
-      <c r="D29" s="146"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="150"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="150"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="150"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="147"/>
-      <c r="AH29" s="150"/>
-      <c r="AI29" s="147"/>
-      <c r="AK29" s="145"/>
-      <c r="AM29" s="140"/>
-      <c r="AN29" s="140"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="D29" s="64"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="68"/>
+      <c r="AI29" s="65"/>
+      <c r="AK29" s="63"/>
+      <c r="AM29" s="58"/>
+      <c r="AN29" s="58"/>
     </row>
     <row r="30" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A30" s="141"/>
-      <c r="B30" s="141"/>
-      <c r="D30" s="146"/>
-      <c r="J30" s="154"/>
-      <c r="M30" s="154"/>
-      <c r="Q30" s="154"/>
-      <c r="U30" s="154"/>
-      <c r="Y30" s="154"/>
-      <c r="AC30" s="154"/>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="152"/>
-      <c r="AI30" s="151"/>
-      <c r="AK30" s="145"/>
-      <c r="AM30" s="140"/>
-      <c r="AN30" s="140"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="D30" s="64"/>
+      <c r="J30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="69"/>
+      <c r="AK30" s="63"/>
+      <c r="AM30" s="58"/>
+      <c r="AN30" s="58"/>
     </row>
     <row r="31" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A31" s="141"/>
-      <c r="B31" s="141"/>
-      <c r="D31" s="146"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
-      <c r="P31" s="148"/>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="150"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="150"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="150"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="147"/>
-      <c r="AH31" s="150"/>
-      <c r="AI31" s="147"/>
-      <c r="AK31" s="145"/>
-      <c r="AM31" s="140"/>
-      <c r="AN31" s="140"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="D31" s="64"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="68"/>
+      <c r="AI31" s="65"/>
+      <c r="AK31" s="63"/>
+      <c r="AM31" s="58"/>
+      <c r="AN31" s="58"/>
     </row>
     <row r="32" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A32" s="141"/>
-      <c r="B32" s="141"/>
-      <c r="D32" s="146"/>
-      <c r="J32" s="154"/>
-      <c r="M32" s="154"/>
-      <c r="Q32" s="154"/>
-      <c r="U32" s="154"/>
-      <c r="Y32" s="154"/>
-      <c r="AC32" s="154"/>
-      <c r="AG32" s="153"/>
-      <c r="AH32" s="152"/>
-      <c r="AI32" s="151"/>
-      <c r="AK32" s="145"/>
-      <c r="AM32" s="140"/>
-      <c r="AN32" s="140"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="D32" s="64"/>
+      <c r="J32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="70"/>
+      <c r="AI32" s="69"/>
+      <c r="AK32" s="63"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="58"/>
     </row>
     <row r="33" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A33" s="141"/>
-      <c r="B33" s="141"/>
-      <c r="D33" s="146"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="150"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="150"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="150"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="150"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="147"/>
-      <c r="AH33" s="150"/>
-      <c r="AI33" s="147"/>
-      <c r="AK33" s="145"/>
-      <c r="AM33" s="140"/>
-      <c r="AN33" s="140"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="D33" s="64"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="65"/>
+      <c r="AK33" s="63"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="58"/>
     </row>
     <row r="34" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="141"/>
-      <c r="D34" s="146"/>
-      <c r="J34" s="154"/>
-      <c r="M34" s="154"/>
-      <c r="Q34" s="154"/>
-      <c r="U34" s="154"/>
-      <c r="Y34" s="154"/>
-      <c r="AC34" s="154"/>
-      <c r="AG34" s="153"/>
-      <c r="AH34" s="152"/>
-      <c r="AI34" s="151"/>
-      <c r="AK34" s="145"/>
-      <c r="AM34" s="140"/>
-      <c r="AN34" s="140"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="D34" s="64"/>
+      <c r="J34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="69"/>
+      <c r="AK34" s="63"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
     </row>
     <row r="35" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A35" s="141"/>
-      <c r="B35" s="141"/>
-      <c r="D35" s="146"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="150"/>
-      <c r="R35" s="148"/>
-      <c r="S35" s="148"/>
-      <c r="T35" s="148"/>
-      <c r="U35" s="150"/>
-      <c r="V35" s="148"/>
-      <c r="W35" s="148"/>
-      <c r="X35" s="148"/>
-      <c r="Y35" s="150"/>
-      <c r="Z35" s="148"/>
-      <c r="AA35" s="148"/>
-      <c r="AB35" s="148"/>
-      <c r="AC35" s="150"/>
-      <c r="AD35" s="148"/>
-      <c r="AE35" s="148"/>
-      <c r="AF35" s="148"/>
-      <c r="AG35" s="147"/>
-      <c r="AH35" s="150"/>
-      <c r="AI35" s="147"/>
-      <c r="AK35" s="145"/>
-      <c r="AM35" s="140"/>
-      <c r="AN35" s="140"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="D35" s="64"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="68"/>
+      <c r="AI35" s="65"/>
+      <c r="AK35" s="63"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="58"/>
     </row>
     <row r="36" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A36" s="141"/>
-      <c r="B36" s="141"/>
-      <c r="D36" s="146"/>
-      <c r="J36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="Q36" s="154"/>
-      <c r="U36" s="154"/>
-      <c r="Y36" s="154"/>
-      <c r="AC36" s="154"/>
-      <c r="AG36" s="153"/>
-      <c r="AH36" s="152"/>
-      <c r="AI36" s="151"/>
-      <c r="AK36" s="145"/>
-      <c r="AM36" s="140"/>
-      <c r="AN36" s="140"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="D36" s="64"/>
+      <c r="J36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AG36" s="71"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="69"/>
+      <c r="AK36" s="63"/>
+      <c r="AM36" s="58"/>
+      <c r="AN36" s="58"/>
     </row>
     <row r="37" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A37" s="141"/>
-      <c r="B37" s="141"/>
-      <c r="D37" s="146"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="148"/>
-      <c r="Q37" s="150"/>
-      <c r="R37" s="148"/>
-      <c r="S37" s="148"/>
-      <c r="T37" s="148"/>
-      <c r="U37" s="150"/>
-      <c r="V37" s="148"/>
-      <c r="W37" s="148"/>
-      <c r="X37" s="148"/>
-      <c r="Y37" s="150"/>
-      <c r="Z37" s="148"/>
-      <c r="AA37" s="148"/>
-      <c r="AB37" s="148"/>
-      <c r="AC37" s="150"/>
-      <c r="AD37" s="148"/>
-      <c r="AE37" s="148"/>
-      <c r="AF37" s="148"/>
-      <c r="AG37" s="147"/>
-      <c r="AH37" s="150"/>
-      <c r="AI37" s="147"/>
-      <c r="AK37" s="145"/>
-      <c r="AM37" s="140"/>
-      <c r="AN37" s="140"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="D37" s="64"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="65"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="65"/>
+      <c r="AK37" s="63"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="58"/>
     </row>
     <row r="38" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A38" s="141"/>
-      <c r="B38" s="141"/>
-      <c r="D38" s="146"/>
-      <c r="J38" s="154"/>
-      <c r="M38" s="154"/>
-      <c r="Q38" s="154"/>
-      <c r="U38" s="154"/>
-      <c r="Y38" s="154"/>
-      <c r="AC38" s="154"/>
-      <c r="AG38" s="153"/>
-      <c r="AH38" s="152"/>
-      <c r="AI38" s="151"/>
-      <c r="AK38" s="145"/>
-      <c r="AM38" s="140"/>
-      <c r="AN38" s="140"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="D38" s="64"/>
+      <c r="J38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AG38" s="71"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="69"/>
+      <c r="AK38" s="63"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
     </row>
     <row r="39" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A39" s="141"/>
-      <c r="B39" s="141"/>
-      <c r="D39" s="146"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="148"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="148"/>
-      <c r="T39" s="148"/>
-      <c r="U39" s="150"/>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="150"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="148"/>
-      <c r="AE39" s="148"/>
-      <c r="AF39" s="148"/>
-      <c r="AG39" s="147"/>
-      <c r="AH39" s="150"/>
-      <c r="AI39" s="147"/>
-      <c r="AK39" s="145"/>
-      <c r="AM39" s="140"/>
-      <c r="AN39" s="140"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="D39" s="64"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="65"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="65"/>
+      <c r="AK39" s="63"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
     </row>
     <row r="40" spans="1:40" ht="14.4" thickTop="1" thickBot="1">
-      <c r="A40" s="141"/>
-      <c r="B40" s="141"/>
-      <c r="D40" s="146"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="150"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="150"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="148"/>
-      <c r="T40" s="148"/>
-      <c r="U40" s="150"/>
-      <c r="V40" s="148"/>
-      <c r="W40" s="148"/>
-      <c r="X40" s="148"/>
-      <c r="Y40" s="150"/>
-      <c r="Z40" s="148"/>
-      <c r="AA40" s="148"/>
-      <c r="AB40" s="148"/>
-      <c r="AC40" s="150"/>
-      <c r="AD40" s="148"/>
-      <c r="AE40" s="148"/>
-      <c r="AF40" s="148"/>
-      <c r="AG40" s="149"/>
-      <c r="AH40" s="148"/>
-      <c r="AI40" s="147"/>
-      <c r="AK40" s="145"/>
-      <c r="AM40" s="140"/>
-      <c r="AN40" s="140"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="D40" s="64"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="65"/>
+      <c r="AK40" s="63"/>
+      <c r="AM40" s="58"/>
+      <c r="AN40" s="58"/>
     </row>
     <row r="41" spans="1:40" ht="13.8" thickTop="1">
-      <c r="A41" s="141"/>
-      <c r="B41" s="141"/>
-      <c r="D41" s="146"/>
-      <c r="AK41" s="145"/>
-      <c r="AM41" s="140"/>
-      <c r="AN41" s="140"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="D41" s="64"/>
+      <c r="AK41" s="63"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="58"/>
     </row>
     <row r="42" spans="1:40" ht="13.8" thickBot="1">
-      <c r="A42" s="141"/>
-      <c r="B42" s="141"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
-      <c r="K42" s="143"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="143"/>
-      <c r="P42" s="143"/>
-      <c r="Q42" s="143"/>
-      <c r="R42" s="143"/>
-      <c r="S42" s="143"/>
-      <c r="T42" s="143"/>
-      <c r="U42" s="143"/>
-      <c r="V42" s="143"/>
-      <c r="W42" s="143"/>
-      <c r="X42" s="143"/>
-      <c r="Y42" s="143"/>
-      <c r="Z42" s="143"/>
-      <c r="AA42" s="143"/>
-      <c r="AB42" s="143"/>
-      <c r="AC42" s="143"/>
-      <c r="AD42" s="143"/>
-      <c r="AE42" s="143"/>
-      <c r="AF42" s="143"/>
-      <c r="AG42" s="143"/>
-      <c r="AH42" s="143"/>
-      <c r="AI42" s="143"/>
-      <c r="AJ42" s="143"/>
-      <c r="AK42" s="142"/>
-      <c r="AM42" s="140"/>
-      <c r="AN42" s="140"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="61"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="60"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="58"/>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" s="141"/>
-      <c r="B43" s="141"/>
-      <c r="AM43" s="140"/>
-      <c r="AN43" s="140"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="58"/>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" s="141"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
-      <c r="L44" s="138"/>
-      <c r="M44" s="138"/>
-      <c r="N44" s="138"/>
-      <c r="O44" s="138"/>
-      <c r="P44" s="138"/>
-      <c r="Q44" s="138"/>
-      <c r="R44" s="138"/>
-      <c r="S44" s="138"/>
-      <c r="T44" s="138"/>
-      <c r="U44" s="138"/>
-      <c r="V44" s="138"/>
-      <c r="W44" s="138"/>
-      <c r="X44" s="138"/>
-      <c r="Y44" s="138"/>
-      <c r="Z44" s="138"/>
-      <c r="AA44" s="138"/>
-      <c r="AB44" s="138"/>
-      <c r="AC44" s="138"/>
-      <c r="AD44" s="138"/>
-      <c r="AE44" s="138"/>
-      <c r="AF44" s="138"/>
-      <c r="AG44" s="138"/>
-      <c r="AH44" s="138"/>
-      <c r="AI44" s="138"/>
-      <c r="AJ44" s="138"/>
-      <c r="AK44" s="138"/>
-      <c r="AL44" s="138"/>
-      <c r="AM44" s="137"/>
-      <c r="AN44" s="140"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="56"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="56"/>
+      <c r="AI44" s="56"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="56"/>
+      <c r="AM44" s="55"/>
+      <c r="AN44" s="58"/>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="139"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="138"/>
-      <c r="K45" s="138"/>
-      <c r="L45" s="138"/>
-      <c r="M45" s="138"/>
-      <c r="N45" s="138"/>
-      <c r="O45" s="138"/>
-      <c r="P45" s="138"/>
-      <c r="Q45" s="138"/>
-      <c r="R45" s="138"/>
-      <c r="S45" s="138"/>
-      <c r="T45" s="138"/>
-      <c r="U45" s="138"/>
-      <c r="V45" s="138"/>
-      <c r="W45" s="138"/>
-      <c r="X45" s="138"/>
-      <c r="Y45" s="138"/>
-      <c r="Z45" s="138"/>
-      <c r="AA45" s="138"/>
-      <c r="AB45" s="138"/>
-      <c r="AC45" s="138"/>
-      <c r="AD45" s="138"/>
-      <c r="AE45" s="138"/>
-      <c r="AF45" s="138"/>
-      <c r="AG45" s="138"/>
-      <c r="AH45" s="138"/>
-      <c r="AI45" s="138"/>
-      <c r="AJ45" s="138"/>
-      <c r="AK45" s="138"/>
-      <c r="AL45" s="138"/>
-      <c r="AM45" s="138"/>
-      <c r="AN45" s="137"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="56"/>
+      <c r="AD45" s="56"/>
+      <c r="AE45" s="56"/>
+      <c r="AF45" s="56"/>
+      <c r="AG45" s="56"/>
+      <c r="AH45" s="56"/>
+      <c r="AI45" s="56"/>
+      <c r="AJ45" s="56"/>
+      <c r="AK45" s="56"/>
+      <c r="AL45" s="56"/>
+      <c r="AM45" s="56"/>
+      <c r="AN45" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面設計図.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/外部設計書類/画面設計図.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\外部設計書類\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3cbc44b6419b246/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9207B42-C7F5-4A96-950E-F0DD5BC04A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0843DF03-26C5-4B1E-85BC-87F39104312C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="3495" windowWidth="18945" windowHeight="9090" tabRatio="847" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ログインページ" sheetId="6" r:id="rId1"/>
+    <sheet name="ログインページ" sheetId="17" r:id="rId1"/>
     <sheet name="メニューページ（講師）" sheetId="1" r:id="rId2"/>
     <sheet name="メニューページ（受講者）" sheetId="2" r:id="rId3"/>
     <sheet name="見出しページ" sheetId="3" r:id="rId4"/>
     <sheet name="詳細ページ" sheetId="4" r:id="rId5"/>
     <sheet name="投稿ページ" sheetId="5" r:id="rId6"/>
-    <sheet name="管理者ログインページ" sheetId="7" r:id="rId7"/>
-    <sheet name="管理者メニューページ" sheetId="14" r:id="rId8"/>
+    <sheet name="管理者ログインページ" sheetId="18" r:id="rId7"/>
+    <sheet name="管理者メニューページ" sheetId="19" r:id="rId8"/>
     <sheet name="ユーザー管理ページ" sheetId="15" r:id="rId9"/>
     <sheet name="管理者見出しページ" sheetId="10" r:id="rId10"/>
     <sheet name="管理者詳細ページ" sheetId="11" r:id="rId11"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="229">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1154,14 +1154,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">string </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>管理者のお知らせを表示</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -1587,6 +1579,123 @@
   </si>
   <si>
     <t>reply_date</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>受講者用ログイン画面</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user_mail</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>textbox</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインを行う際に参照（必須）</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>teraco風ロゴ</t>
+    <rPh sb="6" eb="7">
+      <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>user_logo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者用ログイン画面</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>manager_mail</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>textbox</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>manager_pw</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>manager_logo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>manager_manual</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2790,7 +2899,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F25A20-4156-456B-8D3B-031082EC1A6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB1314B-E63A-407C-954F-4DAEB43C7FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,8 +2907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="2055720"/>
-          <a:ext cx="1160930" cy="195543"/>
+          <a:off x="5524500" y="2274795"/>
+          <a:ext cx="1160930" cy="224118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2846,7 +2955,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7D0C4F-B26D-4A3A-AF86-BB1DDECC7634}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60145CC0-785D-4326-B0C9-9439C38D07B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2977,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3376099" y="960437"/>
+          <a:off x="3376099" y="1055687"/>
           <a:ext cx="3439832" cy="6208322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2896,7 +3005,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CE966C-B1FD-45A0-89D2-9DC896ADA0A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4DBBC0-C12F-4AC0-91C1-786DD4EAB057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,8 +3013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3493294" y="2595562"/>
-          <a:ext cx="385762" cy="278607"/>
+          <a:off x="3493294" y="2881312"/>
+          <a:ext cx="385762" cy="297657"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2970,7 +3079,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF0086D5-43D9-4D91-BEDE-E0780BC5A7B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D44A3A-4AF6-4B0F-9BC2-EFE83526FFF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +3087,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3517106" y="3340893"/>
+          <a:off x="3517106" y="3702843"/>
           <a:ext cx="321468" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3042,7 +3151,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126AF9E2-FE2D-4196-A9D7-3EEDA635858B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B02D6E-307B-4070-9099-EE2F7FA02907}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,8 +3159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3529013" y="3967162"/>
-          <a:ext cx="457199" cy="290513"/>
+          <a:off x="3529013" y="4405312"/>
+          <a:ext cx="457199" cy="309563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3121,7 +3230,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7755EC1-E6C0-42DA-9644-A7BB8D9EAE92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC4DD7C-7746-4EC5-BADF-C8E2A99FAC22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,8 +3238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3252787" y="1454943"/>
-          <a:ext cx="361949" cy="366713"/>
+          <a:off x="3252787" y="1607343"/>
+          <a:ext cx="361949" cy="404813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19262,7 +19371,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223F7571-7B61-4B41-9D0A-FFE23B6D89A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAADE73A-B86E-4B0D-B086-CDD7A1927C5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19318,7 +19427,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED5B096-9701-4FF3-BCFA-9CD6F1246560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E3853E-ABD0-415B-8E9C-433C4D932690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19368,7 +19477,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63398830-1653-4E64-A941-64D69C96010D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81738C92-E443-4F4B-9A3C-042360FD27BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19442,7 +19551,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE0F90-960C-4AE2-B5D5-C7A1E5B9931A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5650CAC9-1BB4-48B5-8CA8-C84B0C1F9508}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19514,7 +19623,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D990D8-B60D-484A-A676-D30FF47EAD1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAE5C30-6043-4269-B3A3-303B5FB7C8C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19593,7 +19702,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517DA661-44B5-429E-BBCB-B944884EADC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD4C5B3-DD5F-4C26-A35A-3A55B9EDA6F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19672,7 +19781,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0B9207-2B38-4F45-BDED-C28D8D7E9289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C8F273-D064-4D1B-B49F-E855533AAADA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19741,7 +19850,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647FA793-DC67-47D7-B66D-3FEBC8F78BC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D226C6-1D10-42AE-BA9D-C58DCCA54BB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19749,8 +19858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="967291" y="1283298"/>
-          <a:ext cx="8502015" cy="4507230"/>
+          <a:off x="1041586" y="1309968"/>
+          <a:ext cx="9344025" cy="4610100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19799,7 +19908,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351D4388-D5FF-4F0D-81F6-CE7B8804FD48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A83A2A0-34A7-4401-ABB4-C1EC377A5C44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19807,8 +19916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2810883" y="2961939"/>
-          <a:ext cx="6376149" cy="2687333"/>
+          <a:off x="3083298" y="3026709"/>
+          <a:ext cx="6995274" cy="2748293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19880,7 +19989,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380BD04B-29E2-49BD-83DD-E0E7754D804E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B1A8E9-A619-44D9-97CA-56A7D7813135}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19888,8 +19997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1255506" y="1382887"/>
-          <a:ext cx="2065428" cy="439189"/>
+          <a:off x="1385046" y="1413367"/>
+          <a:ext cx="2257833" cy="446809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19941,7 +20050,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53E7BD5-CA81-4FF0-ABE9-181D18B39112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DF6FE5-F56A-42D7-B3BA-3240BEFA74AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19949,8 +20058,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6948542" y="1489037"/>
-          <a:ext cx="720763" cy="324074"/>
+          <a:off x="7617197" y="1519517"/>
+          <a:ext cx="795058" cy="331694"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20002,7 +20111,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0569C3DC-C1EA-41B2-A295-C82EDC53A645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F4DB51-5393-4CA9-93EB-38F1FD6BC2CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20010,8 +20119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095487" y="1408355"/>
-          <a:ext cx="195431" cy="212464"/>
+          <a:off x="1194547" y="1438835"/>
+          <a:ext cx="220196" cy="216274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20081,7 +20190,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AD583B-1930-4F77-99D0-89503845D2B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBD741B-4D42-48F2-90DC-49984DACC234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20089,8 +20198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1086523" y="2785334"/>
-          <a:ext cx="195431" cy="212464"/>
+          <a:off x="1185583" y="2846294"/>
+          <a:ext cx="220196" cy="216274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20155,7 +20264,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B36F7-7289-4723-B7F5-F1F10DB49B5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B71DFE-4269-4AE3-8E93-6AF31E6273AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20163,8 +20272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6712770" y="1426283"/>
-          <a:ext cx="195431" cy="212464"/>
+          <a:off x="7356660" y="1456763"/>
+          <a:ext cx="220196" cy="216274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20229,7 +20338,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D20B99-94CA-425E-89E4-00E4314AE466}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210C334B-571C-4552-8F51-ABF2C3DB8374}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20237,8 +20346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2433468" y="2796538"/>
-          <a:ext cx="249219" cy="232188"/>
+          <a:off x="2656353" y="2857498"/>
+          <a:ext cx="273984" cy="239808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20303,7 +20412,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756AF64F-83B9-4026-B094-D5D971D3711D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56CE973-4113-4F33-9286-C46CF4DD73AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20311,8 +20420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7929730" y="1475590"/>
-          <a:ext cx="1396701" cy="402067"/>
+          <a:off x="8697445" y="1506070"/>
+          <a:ext cx="1545291" cy="413497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20364,7 +20473,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA97D840-0092-4315-90E5-1C948CA033B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5891473F-33D5-4217-8F89-5EC56F7DDB79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20372,8 +20481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6697081" y="1757080"/>
-          <a:ext cx="195431" cy="212464"/>
+          <a:off x="7340971" y="1795180"/>
+          <a:ext cx="220196" cy="216274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20438,7 +20547,7 @@
         <xdr:cNvPr id="12" name="グループ化 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB2B9D8-3969-4577-8680-AAB252B503C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECB9DDA-ADF5-4D82-8408-A485BF64BD5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20446,8 +20555,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1501029" y="1466851"/>
-          <a:ext cx="7562037" cy="4987739"/>
+          <a:off x="1481419" y="1466851"/>
+          <a:ext cx="7456141" cy="4987739"/>
           <a:chOff x="1355353" y="1450967"/>
           <a:chExt cx="6868517" cy="4928693"/>
         </a:xfrm>
@@ -20457,7 +20566,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{809AEEE2-7D5C-48C0-9BC6-33B60844AA24}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4395CD1-E60C-4BA0-B675-D93532DD76B5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20533,7 +20642,7 @@
           <xdr:cNvPr id="14" name="テキスト ボックス 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBAE06E-24EA-4315-A4A0-27A5A759451A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC57743-DCD9-43E6-97AD-CDB6B3923B89}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20598,17 +20707,17 @@
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DE18C9-B783-47E8-B094-A7BB2C013691}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD85CA1-DD64-48EA-B975-FC19FEAA1871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20616,8 +20725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1151517" y="1888864"/>
-          <a:ext cx="2766060" cy="380103"/>
+          <a:off x="1250577" y="1930774"/>
+          <a:ext cx="3380689" cy="435659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20691,7 +20800,7 @@
         <xdr:cNvPr id="16" name="テキスト ボックス 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370ED5C6-A535-45BA-BE66-B5314D01F349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EE12E3-22D3-4CDF-BB1D-8FFDAEB83B2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20699,8 +20808,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6935096" y="1810871"/>
-          <a:ext cx="1005840" cy="335280"/>
+          <a:off x="7603751" y="1848971"/>
+          <a:ext cx="1104900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21987,11 +22096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430936FE-B129-44CE-BFB2-341CDB676B12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC99E1FA-8884-4B83-B45B-149599279B70}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="G64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -22018,7 +22127,7 @@
       <c r="L1" s="104"/>
       <c r="M1" s="104"/>
       <c r="N1" s="104" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="O1" s="104"/>
       <c r="P1" s="104"/>
@@ -25214,34 +25323,52 @@
     <row r="79" spans="1:40" ht="15" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" s="18"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="18"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" s="17"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
-      <c r="S79" s="16"/>
+      <c r="S79" s="16">
+        <v>0</v>
+      </c>
       <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
+      <c r="U79" s="16">
+        <v>100</v>
+      </c>
       <c r="V79" s="19"/>
-      <c r="W79" s="16"/>
+      <c r="W79" s="16" t="s">
+        <v>212</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16"/>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
-      <c r="AD79" s="16"/>
+      <c r="AD79" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="AE79" s="17"/>
       <c r="AF79" s="17"/>
       <c r="AG79" s="17"/>
@@ -25256,34 +25383,52 @@
     <row r="80" spans="1:40" ht="15" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="18"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="18"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
-      <c r="S80" s="16"/>
+      <c r="S80" s="16">
+        <v>0</v>
+      </c>
       <c r="T80" s="19"/>
-      <c r="U80" s="16"/>
+      <c r="U80" s="16">
+        <v>20</v>
+      </c>
       <c r="V80" s="19"/>
-      <c r="W80" s="16"/>
+      <c r="W80" s="16" t="s">
+        <v>212</v>
+      </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16"/>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
-      <c r="AD80" s="16"/>
+      <c r="AD80" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="AE80" s="17"/>
       <c r="AF80" s="17"/>
       <c r="AG80" s="17"/>
@@ -25298,19 +25443,27 @@
     <row r="81" spans="1:40" ht="15" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="18"/>
+      <c r="H81" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="16" t="s">
+        <v>216</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -25340,19 +25493,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="18"/>
+      <c r="H82" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -26515,13 +26678,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -26529,7 +26685,14 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -26545,7 +26708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F369491-2275-4C7C-9C42-8764AE656290}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA91" sqref="AA91"/>
     </sheetView>
   </sheetViews>
@@ -29822,7 +29985,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -29890,7 +30053,7 @@
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -29946,12 +30109,12 @@
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AE81" s="17"/>
       <c r="AF81" s="17"/>
@@ -30162,7 +30325,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -30191,7 +30354,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -30237,13 +30400,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -30254,7 +30417,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -30289,13 +30452,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -30341,19 +30504,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -31258,7 +31421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910B8478-D76F-4628-B40B-B41405539211}">
   <dimension ref="A1:AN107"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
@@ -34484,7 +34647,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -34533,7 +34696,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -34581,13 +34744,13 @@
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -34629,13 +34792,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -34646,7 +34809,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -34695,12 +34858,12 @@
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -34749,7 +34912,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -34770,7 +34933,7 @@
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -34795,13 +34958,13 @@
         <v>10</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -34849,19 +35012,19 @@
         <v>11</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -34876,13 +35039,13 @@
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
       <c r="W86" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
@@ -34905,13 +35068,13 @@
         <v>12</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -34953,13 +35116,13 @@
         <v>13</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -47049,7 +47212,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
@@ -47708,7 +47871,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -47776,7 +47939,7 @@
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -47832,12 +47995,12 @@
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AE81" s="17"/>
       <c r="AF81" s="17"/>
@@ -48048,7 +48211,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -48077,7 +48240,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -48123,13 +48286,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -48140,7 +48303,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -48175,13 +48338,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -48227,19 +48390,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -49144,7 +49307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FF3EF9-1447-45E2-9109-5144681A01F7}">
   <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC96" sqref="AC96"/>
     </sheetView>
   </sheetViews>
@@ -52373,7 +52536,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -52422,7 +52585,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -52470,13 +52633,13 @@
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -52518,13 +52681,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -52535,7 +52698,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -52572,24 +52735,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -52638,12 +52801,12 @@
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -52692,12 +52855,12 @@
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -52746,12 +52909,12 @@
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -52767,12 +52930,12 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AE86" s="17"/>
       <c r="AF86" s="17"/>
@@ -52806,7 +52969,7 @@
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
@@ -52827,7 +52990,7 @@
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -52852,13 +53015,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -52906,19 +53069,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -52933,13 +53096,13 @@
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
       <c r="W89" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
@@ -52962,13 +53125,13 @@
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
@@ -53010,13 +53173,13 @@
         <v>13</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
@@ -53884,7 +54047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214625F-DB1A-4178-B9D3-297E1740DD58}">
   <dimension ref="A1:AN108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
@@ -56300,7 +56463,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -57270,12 +57433,12 @@
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -57317,7 +57480,7 @@
       <c r="G80" s="15"/>
       <c r="H80" s="16"/>
       <c r="I80" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
@@ -57421,17 +57584,17 @@
       <c r="G82" s="15"/>
       <c r="H82" s="16"/>
       <c r="I82" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -57468,12 +57631,12 @@
       <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="16"/>
       <c r="I83" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
@@ -57530,7 +57693,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -57577,12 +57740,12 @@
       <c r="G85" s="15"/>
       <c r="H85" s="16"/>
       <c r="I85" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -57624,12 +57787,12 @@
       <c r="D86" s="16"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="16"/>
       <c r="I86" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
@@ -57639,7 +57802,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -57676,13 +57839,13 @@
       <c r="D87" s="16"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="16"/>
       <c r="I87" s="18"/>
       <c r="J87" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
@@ -58627,11 +58790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29EDA3-6602-4678-B604-1368F9B891B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E607F3-8B5E-4692-A75A-008E27E99008}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -58658,7 +58821,7 @@
       <c r="L1" s="104"/>
       <c r="M1" s="104"/>
       <c r="N1" s="104" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="O1" s="104"/>
       <c r="P1" s="104"/>
@@ -60610,7 +60773,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
@@ -61854,34 +62017,52 @@
     <row r="79" spans="1:40" ht="15" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="18"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="18"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" s="17"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
-      <c r="S79" s="16"/>
+      <c r="S79" s="16">
+        <v>0</v>
+      </c>
       <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
+      <c r="U79" s="16">
+        <v>100</v>
+      </c>
       <c r="V79" s="19"/>
-      <c r="W79" s="16"/>
+      <c r="W79" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16"/>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
-      <c r="AD79" s="16"/>
+      <c r="AD79" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="AE79" s="17"/>
       <c r="AF79" s="17"/>
       <c r="AG79" s="17"/>
@@ -61896,34 +62077,52 @@
     <row r="80" spans="1:40" ht="15" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" s="18"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="18"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
-      <c r="S80" s="16"/>
+      <c r="S80" s="16">
+        <v>0</v>
+      </c>
       <c r="T80" s="19"/>
-      <c r="U80" s="16"/>
+      <c r="U80" s="16">
+        <v>20</v>
+      </c>
       <c r="V80" s="19"/>
-      <c r="W80" s="16"/>
+      <c r="W80" s="16" t="s">
+        <v>223</v>
+      </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16"/>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
-      <c r="AD80" s="16"/>
+      <c r="AD80" s="16" t="s">
+        <v>213</v>
+      </c>
       <c r="AE80" s="17"/>
       <c r="AF80" s="17"/>
       <c r="AG80" s="17"/>
@@ -61938,19 +62137,27 @@
     <row r="81" spans="1:40" ht="15" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
       <c r="D81" s="16"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="18"/>
+      <c r="H81" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="16" t="s">
+        <v>225</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -61980,19 +62187,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="18"/>
+      <c r="H82" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -63155,13 +63372,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -63169,7 +63379,14 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -63182,11 +63399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9890B2F6-625E-4AC1-8F89-6C7BF97B3CF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE65FE6D-AE6D-41FD-9BB9-45BC709C05A0}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1"/>
@@ -63213,7 +63430,7 @@
       <c r="L1" s="104"/>
       <c r="M1" s="104"/>
       <c r="N1" s="104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O1" s="104"/>
       <c r="P1" s="104"/>
@@ -63228,7 +63445,7 @@
       </c>
       <c r="X1" s="104"/>
       <c r="Y1" s="104" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z1" s="104"/>
       <c r="AA1" s="104"/>
@@ -64902,7 +65119,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
@@ -64990,7 +65207,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="53"/>
@@ -65078,7 +65295,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
@@ -65164,7 +65381,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
@@ -65250,7 +65467,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="53"/>
@@ -65336,7 +65553,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
@@ -66416,24 +66633,26 @@
       <c r="C79" s="46">
         <v>1</v>
       </c>
-      <c r="D79" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="I79" s="45"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="M79" s="42"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="43"/>
+      <c r="D79" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M79" s="17"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="P79" s="42"/>
       <c r="Q79" s="42"/>
       <c r="R79" s="44"/>
@@ -66466,22 +66685,26 @@
       <c r="C80" s="46">
         <v>2</v>
       </c>
-      <c r="D80" s="43"/>
+      <c r="D80" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="E80" s="42"/>
       <c r="F80" s="42"/>
       <c r="G80" s="46"/>
       <c r="H80" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I80" s="45"/>
       <c r="J80" s="42"/>
       <c r="K80" s="44"/>
       <c r="L80" s="43" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="M80" s="42"/>
       <c r="N80" s="44"/>
-      <c r="O80" s="43"/>
+      <c r="O80" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="P80" s="42"/>
       <c r="Q80" s="42"/>
       <c r="R80" s="44"/>
@@ -66514,22 +66737,26 @@
       <c r="C81" s="46">
         <v>3</v>
       </c>
-      <c r="D81" s="43"/>
+      <c r="D81" s="43" t="s">
+        <v>223</v>
+      </c>
       <c r="E81" s="42"/>
       <c r="F81" s="42"/>
       <c r="G81" s="46"/>
       <c r="H81" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I81" s="45"/>
       <c r="J81" s="42"/>
       <c r="K81" s="44"/>
       <c r="L81" s="43" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="M81" s="42"/>
       <c r="N81" s="44"/>
-      <c r="O81" s="43"/>
+      <c r="O81" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="P81" s="42"/>
       <c r="Q81" s="42"/>
       <c r="R81" s="44"/>
@@ -66567,15 +66794,19 @@
       <c r="F82" s="42"/>
       <c r="G82" s="46"/>
       <c r="H82" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I82" s="45"/>
       <c r="J82" s="42"/>
       <c r="K82" s="44"/>
-      <c r="L82" s="43"/>
+      <c r="L82" s="43" t="s">
+        <v>225</v>
+      </c>
       <c r="M82" s="42"/>
       <c r="N82" s="44"/>
-      <c r="O82" s="43"/>
+      <c r="O82" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="P82" s="42"/>
       <c r="Q82" s="42"/>
       <c r="R82" s="44"/>
@@ -66608,22 +66839,26 @@
       <c r="C83" s="46">
         <v>5</v>
       </c>
-      <c r="D83" s="43"/>
+      <c r="D83" s="43" t="s">
+        <v>228</v>
+      </c>
       <c r="E83" s="42"/>
       <c r="F83" s="42"/>
       <c r="G83" s="46"/>
       <c r="H83" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I83" s="45"/>
       <c r="J83" s="42"/>
       <c r="K83" s="44"/>
       <c r="L83" s="43" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="M83" s="42"/>
       <c r="N83" s="44"/>
-      <c r="O83" s="43"/>
+      <c r="O83" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="P83" s="42"/>
       <c r="Q83" s="42"/>
       <c r="R83" s="44"/>
@@ -66661,17 +66896,19 @@
       <c r="F84" s="42"/>
       <c r="G84" s="46"/>
       <c r="H84" s="43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I84" s="45"/>
       <c r="J84" s="42"/>
       <c r="K84" s="44"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="42" t="s">
-        <v>149</v>
-      </c>
+      <c r="L84" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M84" s="42"/>
       <c r="N84" s="44"/>
-      <c r="O84" s="43"/>
+      <c r="O84" s="43" t="s">
+        <v>226</v>
+      </c>
       <c r="P84" s="42"/>
       <c r="Q84" s="42"/>
       <c r="R84" s="44"/>
@@ -66701,9 +66938,7 @@
     <row r="85" spans="1:40" ht="15" customHeight="1">
       <c r="A85" s="48"/>
       <c r="B85" s="47"/>
-      <c r="C85" s="46">
-        <v>7</v>
-      </c>
+      <c r="C85" s="46"/>
       <c r="D85" s="43"/>
       <c r="E85" s="42"/>
       <c r="F85" s="42"/>
@@ -66745,9 +66980,7 @@
     <row r="86" spans="1:40" ht="15" customHeight="1">
       <c r="A86" s="48"/>
       <c r="B86" s="47"/>
-      <c r="C86" s="46">
-        <v>8</v>
-      </c>
+      <c r="C86" s="46"/>
       <c r="D86" s="43"/>
       <c r="E86" s="42"/>
       <c r="F86" s="42"/>
@@ -66789,9 +67022,7 @@
     <row r="87" spans="1:40" ht="15" customHeight="1">
       <c r="A87" s="48"/>
       <c r="B87" s="47"/>
-      <c r="C87" s="46">
-        <v>9</v>
-      </c>
+      <c r="C87" s="46"/>
       <c r="D87" s="43"/>
       <c r="E87" s="42"/>
       <c r="F87" s="42"/>
@@ -66833,9 +67064,7 @@
     <row r="88" spans="1:40" ht="15" customHeight="1">
       <c r="A88" s="48"/>
       <c r="B88" s="47"/>
-      <c r="C88" s="46">
-        <v>10</v>
-      </c>
+      <c r="C88" s="46"/>
       <c r="D88" s="43"/>
       <c r="E88" s="42"/>
       <c r="F88" s="42"/>
@@ -67758,21 +67987,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -67788,7 +68017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21976257-F687-4CD6-A699-39B09FAB0A41}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
@@ -67817,7 +68046,7 @@
       <c r="L1" s="137"/>
       <c r="M1" s="137"/>
       <c r="N1" s="137" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O1" s="137"/>
       <c r="P1" s="137"/>
@@ -67996,7 +68225,7 @@
     <row r="6" spans="1:40">
       <c r="A6" s="58"/>
       <c r="B6" s="59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -68088,7 +68317,7 @@
       <c r="B9" s="58"/>
       <c r="D9" s="66"/>
       <c r="E9" s="67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
@@ -68131,7 +68360,7 @@
       <c r="L10" s="76"/>
       <c r="N10" s="77"/>
       <c r="O10" s="78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AC10" s="79"/>
       <c r="AK10" s="73"/>
@@ -68199,36 +68428,36 @@
       <c r="B16" s="58"/>
       <c r="D16" s="80"/>
       <c r="J16" s="84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K16" s="71"/>
       <c r="L16" s="71"/>
       <c r="M16" s="70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N16" s="71"/>
       <c r="O16" s="71"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R16" s="71"/>
       <c r="S16" s="71"/>
       <c r="T16" s="71"/>
       <c r="U16" s="70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V16" s="71"/>
       <c r="W16" s="71"/>
       <c r="X16" s="71"/>
       <c r="Y16" s="70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z16" s="71"/>
       <c r="AA16" s="71"/>
       <c r="AB16" s="71"/>
       <c r="AC16" s="70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AD16" s="71"/>
       <c r="AE16" s="71"/>
@@ -68252,7 +68481,7 @@
       <c r="O17" s="82"/>
       <c r="P17" s="82"/>
       <c r="Q17" s="81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R17" s="82"/>
       <c r="S17" s="82"/>
@@ -68262,7 +68491,7 @@
       <c r="W17" s="82"/>
       <c r="X17" s="82"/>
       <c r="Y17" s="81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z17" s="82"/>
       <c r="AA17" s="82"/>
